--- a/data/outputs/management_altmetric/41.xlsx
+++ b/data/outputs/management_altmetric/41.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE113"/>
+  <dimension ref="A1:CF113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1272,6 +1280,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1511,6 +1522,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2001,6 +2018,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2252,6 +2272,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2487,6 +2510,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2726,6 +2752,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2969,6 +2998,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3212,6 +3244,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3451,6 +3486,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3700,6 +3738,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3957,6 +3998,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4196,6 +4240,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4443,6 +4490,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4690,6 +4740,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4937,6 +4990,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5186,6 +5242,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5441,6 +5500,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5696,6 +5758,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5937,6 +6002,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6192,6 +6260,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6431,6 +6502,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6680,6 +6754,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6919,6 +6996,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7166,6 +7246,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7413,6 +7496,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7660,6 +7746,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7907,6 +7996,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8160,6 +8252,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8407,6 +8502,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8658,6 +8756,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8917,6 +9018,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9156,6 +9260,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9401,6 +9508,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>8.08</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9644,6 +9754,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9887,6 +10000,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10130,6 +10246,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10375,6 +10494,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10624,6 +10746,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>19.692</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10875,6 +11000,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11122,6 +11250,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11369,6 +11500,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11620,6 +11754,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11867,6 +12004,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12114,6 +12254,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12365,6 +12508,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12616,6 +12762,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12867,6 +13016,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13106,6 +13258,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13345,6 +13500,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13588,6 +13746,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13839,6 +14000,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14094,6 +14258,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14343,6 +14510,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>14.08</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14598,6 +14768,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14847,6 +15020,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15090,6 +15266,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15347,6 +15526,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15586,6 +15768,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15825,6 +16010,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16084,6 +16272,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16327,6 +16518,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16574,6 +16768,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16825,6 +17022,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17064,6 +17264,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17315,6 +17518,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17566,6 +17772,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17823,6 +18032,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18070,6 +18282,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18317,6 +18532,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18556,6 +18774,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18795,6 +19016,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19038,6 +19262,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19287,6 +19514,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19528,6 +19758,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19775,6 +20008,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20022,6 +20258,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20269,6 +20508,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20508,6 +20750,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20747,6 +20992,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20990,6 +21238,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21229,6 +21480,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21476,6 +21730,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21715,6 +21972,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21954,6 +22214,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22201,6 +22464,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22448,6 +22714,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22691,6 +22960,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22938,6 +23210,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23181,6 +23456,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23420,6 +23698,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23667,6 +23948,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23914,6 +24198,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24161,6 +24448,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24412,6 +24702,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24663,6 +24956,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24914,6 +25210,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25161,6 +25460,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25400,6 +25702,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25647,6 +25952,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25886,6 +26194,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26143,6 +26454,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26390,6 +26704,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26645,6 +26962,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26888,6 +27208,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27135,6 +27458,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27384,6 +27710,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27631,6 +27960,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27870,6 +28202,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28113,6 +28448,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28352,6 +28690,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
